--- a/docentes/García Sánchez Magda Bexabe Estadisticos 2020.xlsx
+++ b/docentes/García Sánchez Magda Bexabe Estadisticos 2020.xlsx
@@ -1198,7 +1198,7 @@
         <v>11</v>
       </c>
       <c r="G2">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1221,7 +1221,7 @@
         <v>12</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1244,7 +1244,7 @@
         <v>13</v>
       </c>
       <c r="G4">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1267,7 +1267,7 @@
         <v>14</v>
       </c>
       <c r="G5">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1290,7 +1290,7 @@
         <v>14</v>
       </c>
       <c r="G6">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1313,7 +1313,7 @@
         <v>14</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
